--- a/indian.xlsx
+++ b/indian.xlsx
@@ -484,9 +484,7 @@
           <t>Aarav Sharma</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>45000</v>
       </c>
@@ -519,9 +517,7 @@
       <c r="C3" t="n">
         <v>34</v>
       </c>
-      <c r="D3" t="n">
-        <v>62000</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>8</v>
       </c>
@@ -535,9 +531,7 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -551,8 +545,10 @@
       <c r="C4" t="n">
         <v>29</v>
       </c>
-      <c r="D4" t="n">
-        <v>51000</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -567,9 +563,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -580,14 +574,12 @@
           <t>Sai Kumar</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>85000</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -644,15 +636,9 @@
           <t>Arjun Rao</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>26</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>Hyderabad</t>
@@ -663,9 +649,7 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -679,8 +663,10 @@
       <c r="C8" t="n">
         <v>38</v>
       </c>
-      <c r="D8" t="n">
-        <v>72000</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -708,9 +694,7 @@
           <t>Ishaan Verma</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>52</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>110000</v>
       </c>
@@ -727,9 +711,7 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>4.7</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -747,7 +729,7 @@
         <v>35000</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -760,7 +742,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
@@ -775,8 +757,10 @@
       <c r="C11" t="n">
         <v>30</v>
       </c>
-      <c r="D11" t="n">
-        <v>55000</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -791,9 +775,7 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -804,15 +786,9 @@
           <t>Aarav Sharma</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>28</v>
-      </c>
-      <c r="D12" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>Mumbai</t>
@@ -823,9 +799,7 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -871,8 +845,10 @@
       <c r="C14" t="n">
         <v>27</v>
       </c>
-      <c r="D14" t="n">
-        <v>48000</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -904,9 +880,7 @@
       <c r="D15" t="n">
         <v>60000</v>
       </c>
-      <c r="E15" t="n">
-        <v>8</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>Nagpur</t>
@@ -917,9 +891,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -933,9 +905,7 @@
       <c r="C16" t="n">
         <v>33</v>
       </c>
-      <c r="D16" t="n">
-        <v>67000</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>9</v>
       </c>
@@ -962,9 +932,7 @@
           <t>Arnav Das</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>29</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>53000</v>
       </c>
@@ -981,9 +949,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1003,7 +969,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1028,9 +994,7 @@
           <t>Omkar Kulkarni</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>105000</v>
       </c>
@@ -1047,9 +1011,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1092,15 +1054,9 @@
           <t>Rahul Choudhary</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>32</v>
-      </c>
-      <c r="D21" t="n">
-        <v>59000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>Ghaziabad</t>
@@ -1111,9 +1067,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>3.7</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1176,7 +1130,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
@@ -1220,9 +1174,7 @@
           <t>Shivam Dubey</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>47</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>95000</v>
       </c>
@@ -1235,9 +1187,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1280,11 +1230,11 @@
           <t>Manish Pandey</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>39</v>
-      </c>
-      <c r="D27" t="n">
-        <v>82000</v>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -1299,9 +1249,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1331,9 +1279,7 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>3.7</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1345,9 +1291,7 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
-        <v>42000</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>4</v>
       </c>
@@ -1406,9 +1350,7 @@
           <t>Deepak Sinha</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>55</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>120000</v>
       </c>
@@ -1425,9 +1367,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1470,15 +1410,11 @@
           <t>Nikhil Kapoor</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>33</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>63000</v>
       </c>
-      <c r="E33" t="n">
-        <v>9</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>Navi Mumbai</t>
@@ -1489,9 +1425,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1507,7 +1441,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>-inf</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1539,9 +1473,7 @@
       <c r="C35" t="n">
         <v>29</v>
       </c>
-      <c r="D35" t="n">
-        <v>50000</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>5</v>
       </c>
@@ -1555,9 +1487,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1600,9 +1530,7 @@
           <t>Rajesh Pillai</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>31</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
         <v>57000</v>
       </c>
@@ -1619,9 +1547,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1664,9 +1590,7 @@
           <t>Manoj Hegde</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>36</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
         <v>75000</v>
       </c>
@@ -1683,9 +1607,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1696,9 +1618,7 @@
           <t>Prakash Nambiar</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>51</v>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
         <v>115000</v>
       </c>
@@ -1715,9 +1635,7 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>4.7</v>
-      </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1760,15 +1678,9 @@
           <t>Vijay Raghavan</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>34</v>
-      </c>
-      <c r="D42" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E42" t="n">
-        <v>8</v>
-      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
           <t>Madurai</t>
@@ -1779,9 +1691,7 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1856,9 +1766,7 @@
           <t>Pranav Shetty</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>38</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
         <v>76000</v>
       </c>
@@ -1875,9 +1783,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1950,9 +1856,7 @@
           <t>Akash Banerjee</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>25</v>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
         <v>37000</v>
       </c>
@@ -1969,9 +1873,7 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2014,9 +1916,7 @@
           <t>Uday Shankar</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>53</v>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
         <v>125000</v>
       </c>
@@ -2033,9 +1933,7 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2049,9 +1947,7 @@
       <c r="C51" t="n">
         <v>28</v>
       </c>
-      <c r="D51" t="n">
-        <v>47000</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>5</v>
       </c>
@@ -2065,9 +1961,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2078,9 +1972,7 @@
           <t>Lokesh Pant</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>40</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
         <v>79000</v>
       </c>
@@ -2174,9 +2066,7 @@
           <t>Mohit Raina</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>49</v>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
         <v>108000</v>
       </c>
@@ -2189,9 +2079,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2234,9 +2122,7 @@
           <t>Faisal Sheikh</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>37</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
         <v>73000</v>
       </c>
@@ -2253,9 +2139,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2266,9 +2150,7 @@
           <t>Imran Mirza</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>54</v>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
         <v>-50000</v>
       </c>
@@ -2330,9 +2212,7 @@
           <t>Aman Gill</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>33</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
         <v>68000</v>
       </c>
@@ -2349,9 +2229,7 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2394,9 +2272,7 @@
           <t>Parth Jindal</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>30</v>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
         <v>55000</v>
       </c>
@@ -2413,9 +2289,7 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>3.7</v>
-      </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2490,9 +2364,7 @@
           <t>Dev Patel</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>56</v>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
         <v>130000</v>
       </c>
@@ -2509,9 +2381,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>4.9</v>
-      </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2554,9 +2424,7 @@
           <t>Ranbir Kapoor</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>36</v>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>inf</t>
@@ -2575,9 +2443,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2620,9 +2486,7 @@
           <t>Varun Dhawan</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>45</v>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
         <v>94000</v>
       </c>
@@ -2639,9 +2503,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2684,9 +2546,7 @@
           <t>Ayushmann Khurana</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>34</v>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
         <v>63000</v>
       </c>
@@ -2703,9 +2563,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2748,9 +2606,7 @@
           <t>Nawazuddin Siddiqui</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>50</v>
-      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
         <v>112000</v>
       </c>
@@ -2767,9 +2623,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v>4.7</v>
-      </c>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2812,9 +2666,7 @@
           <t>Manoj Bajpayee</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>32</v>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
         <v>60000</v>
       </c>
@@ -2831,9 +2683,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2874,9 +2724,7 @@
           <t>Naseeruddin Shah</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>57</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
         <v>140000</v>
       </c>
@@ -2893,9 +2741,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>4.9</v>
-      </c>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2938,9 +2784,7 @@
           <t>Paresh Rawal</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>42</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
         <v>87000</v>
       </c>
@@ -2957,9 +2801,7 @@
           <t>Finance</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3034,9 +2876,7 @@
           <t>Kay Kay Menon</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>38</v>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
         <v>77000</v>
       </c>
@@ -3053,9 +2893,7 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3098,9 +2936,7 @@
           <t>Vicky Kaushal</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>26</v>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
         <v>42000</v>
       </c>
@@ -3117,9 +2953,7 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v>3.4</v>
-      </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3162,9 +2996,7 @@
           <t>Tiger Shroff</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>30</v>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
         <v>57000</v>
       </c>
@@ -3181,9 +3013,7 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3194,9 +3024,7 @@
           <t>Hrithik Roshan</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>46</v>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
         <v>96000</v>
       </c>
@@ -3209,9 +3037,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3222,9 +3048,7 @@
           <t>Salman Khan</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>52</v>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
         <v>118000</v>
       </c>
@@ -3241,9 +3065,7 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3286,9 +3108,7 @@
           <t>Shah Rukh Khan</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>40</v>
-      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
         <v>81000</v>
       </c>
@@ -3305,9 +3125,7 @@
           <t>Marketing</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3350,9 +3168,7 @@
           <t>Aarav Sharma</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>28</v>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
         <v>45000</v>
       </c>
@@ -3382,9 +3198,7 @@
           <t>Suniel Shetty</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>37</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
         <v>71000</v>
       </c>
@@ -3401,9 +3215,7 @@
           <t>Operations</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3446,9 +3258,7 @@
           <t>Saif Ali Khan</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>44</v>
-      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
         <v>89000</v>
       </c>
@@ -3465,9 +3275,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="H95" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3510,9 +3318,7 @@
           <t>Deepika Padukone</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>35</v>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
         <v>67000</v>
       </c>
@@ -3542,9 +3348,7 @@
           <t>Priyanka Chopra</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>51</v>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
         <v>106000</v>
       </c>
@@ -3561,9 +3365,7 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="H98" t="n">
-        <v>4.7</v>
-      </c>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3606,9 +3408,7 @@
           <t>Katrina Kaif</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>32</v>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
         <v>59000</v>
       </c>
@@ -3625,9 +3425,7 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="H100" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
